--- a/Тест-кейсы для ОЗОН.xlsx
+++ b/Тест-кейсы для ОЗОН.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6853131-D94C-4868-B646-EB05B61DFAE5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78A63CA-FFBC-4BF7-82A5-F6EC4CDBC14E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Отображаются товары с выбранным диапазоном цен по возрастанию цены</t>
-  </si>
-  <si>
-    <t>TC-006</t>
   </si>
 </sst>
 </file>
@@ -407,8 +404,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,22 +1304,12 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="30" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1346,30 +1333,14 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>

--- a/Тест-кейсы для ОЗОН.xlsx
+++ b/Тест-кейсы для ОЗОН.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78A63CA-FFBC-4BF7-82A5-F6EC4CDBC14E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEC6FB-BACE-45DE-A252-22DFF888D10E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,8 +404,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
